--- a/sit/lab_2/Практика/zp1.xlsx
+++ b/sit/lab_2/Практика/zp1.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Задача1" sheetId="3" r:id="rId3"/>
+    <sheet name="Задача2" sheetId="4" r:id="rId4"/>
+    <sheet name="Задача3" sheetId="5" r:id="rId5"/>
+    <sheet name="Задача4" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Всего">Задача1!$G$8</definedName>
     <definedName name="Зарплата" localSheetId="0">Лист1!$C$4:$C$14</definedName>
+    <definedName name="Зарплата" localSheetId="1">Лист2!$C$4:$C$14</definedName>
     <definedName name="Налог">Лист1!$I$4:$I$14</definedName>
     <definedName name="Пенсионный_фонд">Лист1!$G$4:$G$14</definedName>
     <definedName name="Премия">Лист1!$E$4:$E$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>Фамилия</t>
   </si>
@@ -114,17 +119,113 @@
   <si>
     <t>Табельный
  номер</t>
+  </si>
+  <si>
+    <t>май</t>
+  </si>
+  <si>
+    <t>июнь</t>
+  </si>
+  <si>
+    <t>июль</t>
+  </si>
+  <si>
+    <t>август</t>
+  </si>
+  <si>
+    <t>сентябрь</t>
+  </si>
+  <si>
+    <t>итого</t>
+  </si>
+  <si>
+    <t>процент</t>
+  </si>
+  <si>
+    <t>4 часа</t>
+  </si>
+  <si>
+    <t>1 день</t>
+  </si>
+  <si>
+    <t>1 неделя</t>
+  </si>
+  <si>
+    <t>Выручка от продажи компьютеров</t>
+  </si>
+  <si>
+    <t>Сезон 2011 года</t>
+  </si>
+  <si>
+    <t>Годы</t>
+  </si>
+  <si>
+    <t>Номер лотка</t>
+  </si>
+  <si>
+    <t>Ранг</t>
+  </si>
+  <si>
+    <t>Доход</t>
+  </si>
+  <si>
+    <t>Выручка от продажи на лотках</t>
+  </si>
+  <si>
+    <t>Среднегодовой доход</t>
+  </si>
+  <si>
+    <t>Максимальный доход</t>
+  </si>
+  <si>
+    <t>Минимальный доход</t>
+  </si>
+  <si>
+    <t>Городской налог</t>
+  </si>
+  <si>
+    <t>Код города</t>
+  </si>
+  <si>
+    <t>Возраст</t>
+  </si>
+  <si>
+    <t>Налог</t>
+  </si>
+  <si>
+    <t>Иванов И. И.</t>
+  </si>
+  <si>
+    <t>Петров П. П.</t>
+  </si>
+  <si>
+    <t>Сидоров С. С.</t>
+  </si>
+  <si>
+    <t>Анализ объема продаж</t>
+  </si>
+  <si>
+    <t>Фамилия И. О.</t>
+  </si>
+  <si>
+    <t>Объем продаж</t>
+  </si>
+  <si>
+    <t>Отклонение от среднего</t>
+  </si>
+  <si>
+    <t>Квадратное отклонение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -292,28 +393,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -327,6 +440,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,13 +453,24 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
+    <cellStyle name="Итог" xfId="2" builtinId="25"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Совет директоров">
       <a:majorFont>
-        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+        <a:latin typeface="Century Gothic"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -436,7 +564,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+        <a:latin typeface="Century Gothic"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="メイリオ"/>
@@ -616,28 +744,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Ion Boardroom" id="{FC33163D-4339-46B1-8EED-24C834239D99}" vid="{B8502691-933B-45FE-8764-BA278511EF27}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Ion Boardroom" id="{FC33163D-4339-46B1-8EED-24C834239D99}" vid="{B8502691-933B-45FE-8764-BA278511EF27}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
@@ -647,35 +775,35 @@
     <col min="10" max="10" width="16.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" ht="37.5" customHeight="1" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -708,7 +836,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" outlineLevel="2">
       <c r="A4" s="10">
         <v>100</v>
       </c>
@@ -746,45 +874,45 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="5" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" outlineLevel="1">
       <c r="A5" s="5"/>
       <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6">
-        <f>SUBTOTAL(9,C4:C4)</f>
+        <f t="shared" ref="C5:J5" si="4">SUBTOTAL(9,C4:C4)</f>
         <v>10000</v>
       </c>
       <c r="D5" s="7">
-        <f>SUBTOTAL(9,D4:D4)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E5" s="8">
-        <f>SUBTOTAL(9,E4:E4)</f>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="F5" s="8">
-        <f>SUBTOTAL(9,F4:F4)</f>
+        <f t="shared" si="4"/>
         <v>12000</v>
       </c>
       <c r="G5" s="8">
-        <f>SUBTOTAL(9,G4:G4)</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="H5" s="8">
-        <f>SUBTOTAL(9,H4:H4)</f>
+        <f t="shared" si="4"/>
         <v>11880</v>
       </c>
       <c r="I5" s="8">
-        <f>SUBTOTAL(9,I4:I4)</f>
+        <f t="shared" si="4"/>
         <v>1800</v>
       </c>
       <c r="J5" s="8">
-        <f>SUBTOTAL(9,J4:J4)</f>
+        <f t="shared" si="4"/>
         <v>10200</v>
       </c>
     </row>
-    <row r="6" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" outlineLevel="1">
       <c r="A6" s="5"/>
       <c r="B6" s="9" t="s">
         <v>18</v>
@@ -822,7 +950,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" outlineLevel="2">
       <c r="A7" s="5">
         <v>102</v>
       </c>
@@ -844,7 +972,7 @@
         <v>16800</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" ref="G7:G18" si="4">F7*0.01</f>
+        <f t="shared" ref="G7:G18" si="5">F7*0.01</f>
         <v>168</v>
       </c>
       <c r="H7" s="8">
@@ -852,7 +980,7 @@
         <v>16632</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" ref="I7:I14" si="5">F7*0.15</f>
+        <f t="shared" ref="I7:I14" si="6">F7*0.15</f>
         <v>2520</v>
       </c>
       <c r="J7" s="8">
@@ -860,45 +988,45 @@
         <v>14280</v>
       </c>
     </row>
-    <row r="8" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" outlineLevel="1">
       <c r="A8" s="5"/>
       <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="6">
-        <f>SUBTOTAL(9,C7:C7)</f>
+        <f t="shared" ref="C8:J8" si="7">SUBTOTAL(9,C7:C7)</f>
         <v>15000</v>
       </c>
       <c r="D8" s="7">
-        <f>SUBTOTAL(9,D7:D7)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="E8" s="8">
-        <f>SUBTOTAL(9,E7:E7)</f>
+        <f t="shared" si="7"/>
         <v>1800</v>
       </c>
       <c r="F8" s="8">
-        <f>SUBTOTAL(9,F7:F7)</f>
+        <f t="shared" si="7"/>
         <v>16800</v>
       </c>
       <c r="G8" s="8">
-        <f>SUBTOTAL(9,G7:G7)</f>
+        <f t="shared" si="7"/>
         <v>168</v>
       </c>
       <c r="H8" s="8">
-        <f>SUBTOTAL(9,H7:H7)</f>
+        <f t="shared" si="7"/>
         <v>16632</v>
       </c>
       <c r="I8" s="8">
-        <f>SUBTOTAL(9,I7:I7)</f>
+        <f t="shared" si="7"/>
         <v>2520</v>
       </c>
       <c r="J8" s="8">
-        <f>SUBTOTAL(9,J7:J7)</f>
+        <f t="shared" si="7"/>
         <v>14280</v>
       </c>
     </row>
-    <row r="9" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" outlineLevel="2">
       <c r="A9" s="5">
         <v>103</v>
       </c>
@@ -920,7 +1048,7 @@
         <v>8960</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89.600000000000009</v>
       </c>
       <c r="H9" s="8">
@@ -928,7 +1056,7 @@
         <v>8870.4</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1344</v>
       </c>
       <c r="J9" s="8">
@@ -936,7 +1064,7 @@
         <v>7616</v>
       </c>
     </row>
-    <row r="10" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" outlineLevel="2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -948,45 +1076,45 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" outlineLevel="1">
       <c r="A11" s="5"/>
       <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="6">
-        <f>SUBTOTAL(9,C9:C9)</f>
+        <f t="shared" ref="C11:J11" si="8">SUBTOTAL(9,C9:C9)</f>
         <v>8000</v>
       </c>
       <c r="D11" s="7">
-        <f>SUBTOTAL(9,D9:D9)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E11" s="8">
-        <f>SUBTOTAL(9,E9:E9)</f>
+        <f t="shared" si="8"/>
         <v>960</v>
       </c>
       <c r="F11" s="8">
-        <f>SUBTOTAL(9,F9:F9)</f>
+        <f t="shared" si="8"/>
         <v>8960</v>
       </c>
       <c r="G11" s="8">
-        <f>SUBTOTAL(9,G9:G9)</f>
+        <f t="shared" si="8"/>
         <v>89.600000000000009</v>
       </c>
       <c r="H11" s="8">
-        <f>SUBTOTAL(9,H9:H9)</f>
+        <f t="shared" si="8"/>
         <v>8870.4</v>
       </c>
       <c r="I11" s="8">
-        <f>SUBTOTAL(9,I9:I9)</f>
+        <f t="shared" si="8"/>
         <v>1344</v>
       </c>
       <c r="J11" s="8">
-        <f>SUBTOTAL(9,J9:J9)</f>
+        <f t="shared" si="8"/>
         <v>7616</v>
       </c>
     </row>
-    <row r="12" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" outlineLevel="2">
       <c r="A12" s="5">
         <v>104</v>
       </c>
@@ -1008,7 +1136,7 @@
         <v>13800</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="H12" s="8">
@@ -1016,7 +1144,7 @@
         <v>13662</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2070</v>
       </c>
       <c r="J12" s="8">
@@ -1024,45 +1152,45 @@
         <v>11730</v>
       </c>
     </row>
-    <row r="13" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" outlineLevel="1">
       <c r="A13" s="5"/>
       <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="6">
-        <f>SUBTOTAL(9,C12:C12)</f>
+        <f t="shared" ref="C13:J13" si="9">SUBTOTAL(9,C12:C12)</f>
         <v>11500</v>
       </c>
       <c r="D13" s="7">
-        <f>SUBTOTAL(9,D12:D12)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="E13" s="8">
-        <f>SUBTOTAL(9,E12:E12)</f>
+        <f t="shared" si="9"/>
         <v>2300</v>
       </c>
       <c r="F13" s="8">
-        <f>SUBTOTAL(9,F12:F12)</f>
+        <f t="shared" si="9"/>
         <v>13800</v>
       </c>
       <c r="G13" s="8">
-        <f>SUBTOTAL(9,G12:G12)</f>
+        <f t="shared" si="9"/>
         <v>138</v>
       </c>
       <c r="H13" s="8">
-        <f>SUBTOTAL(9,H12:H12)</f>
+        <f t="shared" si="9"/>
         <v>13662</v>
       </c>
       <c r="I13" s="8">
-        <f>SUBTOTAL(9,I12:I12)</f>
+        <f t="shared" si="9"/>
         <v>2070</v>
       </c>
       <c r="J13" s="8">
-        <f>SUBTOTAL(9,J12:J12)</f>
+        <f t="shared" si="9"/>
         <v>11730</v>
       </c>
     </row>
-    <row r="14" spans="1:11" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" outlineLevel="2">
       <c r="A14" s="5">
         <v>105</v>
       </c>
@@ -1084,7 +1212,7 @@
         <v>18704</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>187.04</v>
       </c>
       <c r="H14" s="8">
@@ -1092,7 +1220,7 @@
         <v>18516.96</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2805.6</v>
       </c>
       <c r="J14" s="8">
@@ -1100,121 +1228,121 @@
         <v>15898.4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" outlineLevel="1">
       <c r="A15" s="5"/>
       <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="6">
-        <f>SUBTOTAL(9,C14:C14)</f>
+        <f t="shared" ref="C15:J15" si="10">SUBTOTAL(9,C14:C14)</f>
         <v>16700</v>
       </c>
       <c r="D15" s="7">
-        <f>SUBTOTAL(9,D14:D14)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="E15" s="8">
-        <f>SUBTOTAL(9,E14:E14)</f>
+        <f t="shared" si="10"/>
         <v>2004</v>
       </c>
       <c r="F15" s="8">
-        <f>SUBTOTAL(9,F14:F14)</f>
+        <f t="shared" si="10"/>
         <v>18704</v>
       </c>
       <c r="G15" s="8">
-        <f>SUBTOTAL(9,G14:G14)</f>
+        <f t="shared" si="10"/>
         <v>187.04</v>
       </c>
       <c r="H15" s="8">
-        <f>SUBTOTAL(9,H14:H14)</f>
+        <f t="shared" si="10"/>
         <v>18516.96</v>
       </c>
       <c r="I15" s="8">
-        <f>SUBTOTAL(9,I14:I14)</f>
+        <f t="shared" si="10"/>
         <v>2805.6</v>
       </c>
       <c r="J15" s="8">
-        <f>SUBTOTAL(9,J14:J14)</f>
+        <f t="shared" si="10"/>
         <v>15898.4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="5"/>
       <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="6">
-        <f>SUBTOTAL(9,C4:C14)</f>
+        <f t="shared" ref="C16:J16" si="11">SUBTOTAL(9,C4:C14)</f>
         <v>61200</v>
       </c>
       <c r="D16" s="7">
-        <f>SUBTOTAL(9,D4:D14)</f>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="E16" s="8">
-        <f>SUBTOTAL(9,E4:E14)</f>
+        <f t="shared" si="11"/>
         <v>9064</v>
       </c>
       <c r="F16" s="8">
-        <f>SUBTOTAL(9,F4:F14)</f>
+        <f t="shared" si="11"/>
         <v>70264</v>
       </c>
       <c r="G16" s="8">
-        <f>SUBTOTAL(9,G4:G14)</f>
+        <f t="shared" si="11"/>
         <v>702.64</v>
       </c>
       <c r="H16" s="8">
-        <f>SUBTOTAL(9,H4:H14)</f>
+        <f t="shared" si="11"/>
         <v>69561.36</v>
       </c>
       <c r="I16" s="8">
-        <f>SUBTOTAL(9,I4:I14)</f>
+        <f t="shared" si="11"/>
         <v>10539.6</v>
       </c>
       <c r="J16" s="8">
-        <f>SUBTOTAL(9,J4:J14)</f>
+        <f t="shared" si="11"/>
         <v>59724.4</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
+    <row r="18" spans="2:10">
+      <c r="B18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="21" t="e">
+      <c r="C18" s="18" t="e">
         <f>SUM(Зарплата)</f>
         <v>#REF!</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23" t="e">
+      <c r="D18" s="19"/>
+      <c r="E18" s="20" t="e">
         <f>SUM(Премия)</f>
         <v>#REF!</v>
       </c>
-      <c r="F18" s="23" t="e">
+      <c r="F18" s="20" t="e">
         <f>SUM(F4:F14)</f>
         <v>#REF!</v>
       </c>
-      <c r="G18" s="23" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="23" t="e">
-        <f t="shared" ref="H18" si="6">F18-G18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" s="23" t="e">
+      <c r="G18" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="20" t="e">
+        <f t="shared" ref="H18" si="12">F18-G18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I18" s="20" t="e">
         <f>SUM(Налог)</f>
         <v>#REF!</v>
       </c>
-      <c r="J18" s="23" t="e">
+      <c r="J18" s="20" t="e">
         <f>SUM(J4:J14)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
+    <row r="19" spans="2:10">
+      <c r="B19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="21" t="e">
+      <c r="C19" s="18" t="e">
         <f>MAX(Зарплата)</f>
         <v>#REF!</v>
       </c>
@@ -1223,16 +1351,16 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="23" t="e">
+      <c r="J19" s="20" t="e">
         <f>MAX(J4:J14)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
+    <row r="20" spans="2:10">
+      <c r="B20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="21" t="e">
+      <c r="C20" s="18" t="e">
         <f>AVERAGE(Зарплата)</f>
         <v>#REF!</v>
       </c>
@@ -1241,12 +1369,12 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="23" t="e">
+      <c r="J20" s="20" t="e">
         <f>AVERAGE(J4:J14)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1265,27 +1393,1284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="43.5" thickBot="1">
+      <c r="A3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" thickTop="1">
+      <c r="A4" s="10">
+        <v>100</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="12">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E14" si="0">IF(D4&gt;5,IF(D4&gt;15,Зарплата*0.25,Зарплата*0.2),Зарплата*0.12)</f>
+        <v>2000</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" ref="F4:F14" si="1">Зарплата+Премия</f>
+        <v>12000</v>
+      </c>
+      <c r="G4" s="13">
+        <f>F4*0.01</f>
+        <v>120</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" ref="H4:H14" si="2">F4-Пенсионный_фонд</f>
+        <v>11880</v>
+      </c>
+      <c r="I4" s="13">
+        <f>F4*0.15</f>
+        <v>1800</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" ref="J4:J14" si="3">F4-Налог</f>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:J5" si="4">SUBTOTAL(9,C4:C4)</f>
+        <v>10000</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="4"/>
+        <v>11880</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="4"/>
+        <v>1800</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="4"/>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="e">
+        <f>SUBTOTAL(9,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="7" t="e">
+        <f>SUBTOTAL(9,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="8" t="e">
+        <f>SUBTOTAL(9,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="8" t="e">
+        <f>SUBTOTAL(9,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="8" t="e">
+        <f>SUBTOTAL(9,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="8" t="e">
+        <f>SUBTOTAL(9,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I6" s="8" t="e">
+        <f>SUBTOTAL(9,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J6" s="8" t="e">
+        <f>SUBTOTAL(9,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5">
+        <v>102</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>16800</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" ref="G7:G18" si="5">F7*0.01</f>
+        <v>168</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="2"/>
+        <v>16632</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" ref="I7:I14" si="6">F7*0.15</f>
+        <v>2520</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="3"/>
+        <v>14280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:J8" si="7">SUBTOTAL(9,C7:C7)</f>
+        <v>15000</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="7"/>
+        <v>1800</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="7"/>
+        <v>16800</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="7"/>
+        <v>168</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="7"/>
+        <v>16632</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="7"/>
+        <v>2520</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="7"/>
+        <v>14280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5">
+        <v>103</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>8960</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="5"/>
+        <v>89.600000000000009</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="2"/>
+        <v>8870.4</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="6"/>
+        <v>1344</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="3"/>
+        <v>7616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" ref="C11:J11" si="8">SUBTOTAL(9,C9:C9)</f>
+        <v>8000</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="8"/>
+        <v>960</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="8"/>
+        <v>8960</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="8"/>
+        <v>89.600000000000009</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="8"/>
+        <v>8870.4</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="8"/>
+        <v>1344</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="8"/>
+        <v>7616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5">
+        <v>104</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>11500</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>13800</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="2"/>
+        <v>13662</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="6"/>
+        <v>2070</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="3"/>
+        <v>11730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" ref="C13:J13" si="9">SUBTOTAL(9,C12:C12)</f>
+        <v>11500</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="9"/>
+        <v>2300</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="9"/>
+        <v>13800</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="9"/>
+        <v>138</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="9"/>
+        <v>13662</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="9"/>
+        <v>2070</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="9"/>
+        <v>11730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5">
+        <v>105</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>16700</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>18704</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="5"/>
+        <v>187.04</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="2"/>
+        <v>18516.96</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="6"/>
+        <v>2805.6</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="3"/>
+        <v>15898.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" ref="C15:J15" si="10">SUBTOTAL(9,C14:C14)</f>
+        <v>16700</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="10"/>
+        <v>2004</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="10"/>
+        <v>18704</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="10"/>
+        <v>187.04</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="10"/>
+        <v>18516.96</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="10"/>
+        <v>2805.6</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="10"/>
+        <v>15898.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" ref="C16:J16" si="11">SUBTOTAL(9,C4:C14)</f>
+        <v>61200</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="11"/>
+        <v>9064</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="11"/>
+        <v>70264</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="11"/>
+        <v>702.64</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="11"/>
+        <v>69561.36</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="11"/>
+        <v>10539.6</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="11"/>
+        <v>59724.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="18" t="e">
+        <f>SUM(Зарплата)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20" t="e">
+        <f>SUM(Премия)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F18" s="20" t="e">
+        <f>SUM(F4:F14)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G18" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="20" t="e">
+        <f t="shared" ref="H18" si="12">F18-G18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I18" s="20" t="e">
+        <f>SUM(Налог)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J18" s="20" t="e">
+        <f>SUM(J4:J14)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="18" t="e">
+        <f>MAX(Зарплата)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="20" t="e">
+        <f>MAX(J4:J14)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="18" t="e">
+        <f>AVERAGE(Зарплата)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="20" t="e">
+        <f>AVERAGE(J4:J14)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="26"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>1050</v>
+      </c>
+      <c r="C5">
+        <v>2100</v>
+      </c>
+      <c r="D5">
+        <v>4250</v>
+      </c>
+      <c r="E5">
+        <v>1367</v>
+      </c>
+      <c r="F5">
+        <v>1967</v>
+      </c>
+      <c r="G5">
+        <f>SUM(B5:F5)</f>
+        <v>10734</v>
+      </c>
+      <c r="H5" s="27">
+        <f>G5/Всего</f>
+        <v>3.7591404477068331E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>3510</v>
+      </c>
+      <c r="C6">
+        <v>6534</v>
+      </c>
+      <c r="D6">
+        <v>13456</v>
+      </c>
+      <c r="E6">
+        <v>11654</v>
+      </c>
+      <c r="F6">
+        <v>2356</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G7" si="0">SUM(B6:F6)</f>
+        <v>37510</v>
+      </c>
+      <c r="H6" s="27">
+        <f>G6/Всего</f>
+        <v>0.13136329252234333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>21000</v>
+      </c>
+      <c r="C7">
+        <v>37800</v>
+      </c>
+      <c r="D7">
+        <v>87900</v>
+      </c>
+      <c r="E7">
+        <v>75400</v>
+      </c>
+      <c r="F7">
+        <v>15200</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>237300</v>
+      </c>
+      <c r="H7" s="27">
+        <f>G7/Всего</f>
+        <v>0.83104530300058832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B5:B7)</f>
+        <v>25560</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C5:C7)</f>
+        <v>46434</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:G8" si="1">SUM(D5:D7)</f>
+        <v>105606</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>88421</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>19523</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>285544</v>
+      </c>
+      <c r="H8" s="27">
+        <f>G8/Всего</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2008</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>RANK($D4,$D$4:$D$12)</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C12" si="0">RANK($D5,$D$4:$D$12)</f>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>68453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>52748</v>
+      </c>
+      <c r="E6">
+        <f>SUM(D4:D6)</f>
+        <v>175801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2009</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>45903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>50456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>36914</v>
+      </c>
+      <c r="E9">
+        <f>SUM(D7:D9)</f>
+        <v>133273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2010</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>34109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>31745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>33584</v>
+      </c>
+      <c r="E12">
+        <f>SUM(D10:D12)</f>
+        <v>99438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="E14">
+        <f>AVERAGE(E6,E9,E12)</f>
+        <v>136170.66666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="E15">
+        <f>MAX(E6,E9,E12)</f>
+        <v>175801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="E16">
+        <f>MIN(E12,E9,E6)</f>
+        <v>99438</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>99438</v>
+      </c>
+      <c r="C20">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>133273</v>
+      </c>
+      <c r="C21">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>175801</v>
+      </c>
+      <c r="C22">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="28">
+        <f>TREND(B20:B22,C20:C22,C22)</f>
+        <v>174352.16666667163</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="28">
+        <f>TREND(B20:B22,C20:C22,C22)</f>
+        <v>174352.16666667163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>14500</v>
+      </c>
+      <c r="E4">
+        <f>IF(AND(B4=10, C4&gt;18), D4 * 0.1,0)</f>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>7350</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="0">IF(AND(B5=10, C5&gt;18), D5 * 0.1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>5000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="3" spans="1:4" ht="33">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>4700</v>
+      </c>
+      <c r="C5">
+        <f>ABS(B5-$B$9)</f>
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <f>POWER(C5,2)</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>3567</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C7" si="0">ABS(B6-$B$9)</f>
+        <v>1146</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D7" si="1">POWER(C6,2)</f>
+        <v>1313316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>5873</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1160</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1345600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9">
+        <f>ROUND(AVERAGE(B5:B7),0)</f>
+        <v>4713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10">
+        <f>VARP(B5:B7)</f>
+        <v>886361.5555555555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11">
+        <f>STDEVP(B5:B7)</f>
+        <v>941.46776660465412</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sit/lab_2/Практика/zp1.xlsx
+++ b/sit/lab_2/Практика/zp1.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F79E0768-50DF-4D18-ACEF-1F3381B840C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F79E0768-50DF-4D18-ACEF-1F3381B840C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2446FDF6-BCA6-4460-940F-449B62E7CED1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10380" yWindow="3645" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Функции Дата-Время" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Фамилия</t>
   </si>
@@ -90,6 +90,48 @@
   </si>
   <si>
     <t>Сред</t>
+  </si>
+  <si>
+    <t>Возраст</t>
+  </si>
+  <si>
+    <t>Порядковый номер</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>Юбилей</t>
+  </si>
+  <si>
+    <t>Самойлов</t>
+  </si>
+  <si>
+    <t>Игнатов</t>
+  </si>
+  <si>
+    <t>петров</t>
+  </si>
+  <si>
+    <t>Иванова</t>
+  </si>
+  <si>
+    <t>Шустов</t>
+  </si>
+  <si>
+    <t>Потапова</t>
+  </si>
+  <si>
+    <t>Соловьев</t>
+  </si>
+  <si>
+    <t>Сотников</t>
+  </si>
+  <si>
+    <t>Зорина</t>
+  </si>
+  <si>
+    <t>Амосова</t>
   </si>
 </sst>
 </file>
@@ -130,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -147,6 +189,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -487,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -550,11 +596,11 @@
         <v>12</v>
       </c>
       <c r="E2" s="4">
-        <f>IF(D2&gt;5,IF(D2&gt;15,Зарплата*0.25,Зарплата*0.2),Зарплата*0.12)</f>
+        <f t="shared" ref="E2:E7" si="0">IF(D2&gt;5,IF(D2&gt;15,Зарплата*0.25,Зарплата*0.2),Зарплата*0.12)</f>
         <v>2000</v>
       </c>
       <c r="F2" s="4">
-        <f>Зарплата+Премия</f>
+        <f t="shared" ref="F2:F7" si="1">Зарплата+Премия</f>
         <v>12000</v>
       </c>
       <c r="G2" s="4">
@@ -562,7 +608,7 @@
         <v>120</v>
       </c>
       <c r="H2" s="4">
-        <f>F2-Пенсионный_фонд</f>
+        <f t="shared" ref="H2:H7" si="2">F2-Пенсионный_фонд</f>
         <v>11880</v>
       </c>
       <c r="I2" s="4">
@@ -570,7 +616,7 @@
         <v>1800</v>
       </c>
       <c r="J2" s="6">
-        <f>F2-Налог</f>
+        <f t="shared" ref="J2:J7" si="3">F2-Налог</f>
         <v>10200</v>
       </c>
     </row>
@@ -588,27 +634,27 @@
         <v>5</v>
       </c>
       <c r="E3" s="4">
-        <f>IF(D3&gt;5,IF(D3&gt;15,Зарплата*0.25,Зарплата*0.2),Зарплата*0.12)</f>
+        <f t="shared" si="0"/>
         <v>1560</v>
       </c>
       <c r="F3" s="4">
-        <f>Зарплата+Премия</f>
+        <f t="shared" si="1"/>
         <v>14560</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G9" si="0">F3*0.01</f>
+        <f t="shared" ref="G3:G9" si="4">F3*0.01</f>
         <v>145.6</v>
       </c>
       <c r="H3" s="4">
-        <f>F3-Пенсионный_фонд</f>
+        <f t="shared" si="2"/>
         <v>14414.4</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I7" si="1">F3*0.15</f>
+        <f t="shared" ref="I3:I7" si="5">F3*0.15</f>
         <v>2184</v>
       </c>
       <c r="J3" s="6">
-        <f>F3-Налог</f>
+        <f t="shared" si="3"/>
         <v>12376</v>
       </c>
     </row>
@@ -626,27 +672,27 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <f>IF(D4&gt;5,IF(D4&gt;15,Зарплата*0.25,Зарплата*0.2),Зарплата*0.12)</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="F4" s="4">
-        <f>Зарплата+Премия</f>
+        <f t="shared" si="1"/>
         <v>16800</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>168</v>
       </c>
       <c r="H4" s="4">
-        <f>F4-Пенсионный_фонд</f>
+        <f t="shared" si="2"/>
         <v>16632</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2520</v>
       </c>
       <c r="J4" s="6">
-        <f>F4-Налог</f>
+        <f t="shared" si="3"/>
         <v>14280</v>
       </c>
     </row>
@@ -664,27 +710,27 @@
         <v>1</v>
       </c>
       <c r="E5" s="4">
-        <f>IF(D5&gt;5,IF(D5&gt;15,Зарплата*0.25,Зарплата*0.2),Зарплата*0.12)</f>
+        <f t="shared" si="0"/>
         <v>960</v>
       </c>
       <c r="F5" s="4">
-        <f>Зарплата+Премия</f>
+        <f t="shared" si="1"/>
         <v>8960</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>89.600000000000009</v>
       </c>
       <c r="H5" s="4">
-        <f>F5-Пенсионный_фонд</f>
+        <f t="shared" si="2"/>
         <v>8870.4</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1344</v>
       </c>
       <c r="J5" s="6">
-        <f>F5-Налог</f>
+        <f t="shared" si="3"/>
         <v>7616</v>
       </c>
     </row>
@@ -702,27 +748,27 @@
         <v>10</v>
       </c>
       <c r="E6" s="4">
-        <f>IF(D6&gt;5,IF(D6&gt;15,Зарплата*0.25,Зарплата*0.2),Зарплата*0.12)</f>
+        <f t="shared" si="0"/>
         <v>2300</v>
       </c>
       <c r="F6" s="4">
-        <f>Зарплата+Премия</f>
+        <f t="shared" si="1"/>
         <v>13800</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
       <c r="H6" s="4">
-        <f>F6-Пенсионный_фонд</f>
+        <f t="shared" si="2"/>
         <v>13662</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2070</v>
       </c>
       <c r="J6" s="6">
-        <f>F6-Налог</f>
+        <f t="shared" si="3"/>
         <v>11730</v>
       </c>
     </row>
@@ -740,27 +786,27 @@
         <v>5</v>
       </c>
       <c r="E7" s="4">
-        <f>IF(D7&gt;5,IF(D7&gt;15,Зарплата*0.25,Зарплата*0.2),Зарплата*0.12)</f>
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="F7" s="4">
-        <f>Зарплата+Премия</f>
+        <f t="shared" si="1"/>
         <v>18704</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>187.04</v>
       </c>
       <c r="H7" s="4">
-        <f>F7-Пенсионный_фонд</f>
+        <f t="shared" si="2"/>
         <v>18516.96</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2805.6</v>
       </c>
       <c r="J7" s="6">
-        <f>F7-Налог</f>
+        <f t="shared" si="3"/>
         <v>15898.4</v>
       </c>
     </row>
@@ -786,11 +832,11 @@
         <v>84824</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>848.24</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" ref="H3:H9" si="2">F9-G9</f>
+        <f t="shared" ref="H9" si="6">F9-G9</f>
         <v>83975.76</v>
       </c>
       <c r="I9" s="4">
@@ -836,12 +882,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9">
+        <v>30317</v>
+      </c>
+      <c r="D3">
+        <f ca="1">INT((TODAY()-C3)/365)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9">
+        <v>28945</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D12" ca="1" si="0">INT((TODAY()-C4)/365)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9">
+        <v>29680</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9">
+        <v>29585</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9">
+        <v>30139</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9">
+        <v>29500</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9">
+        <v>29750</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9">
+        <v>29061</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9">
+        <v>29823</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9">
+        <v>29427</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/sit/lab_2/Практика/zp1.xlsx
+++ b/sit/lab_2/Практика/zp1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F79E0768-50DF-4D18-ACEF-1F3381B840C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2446FDF6-BCA6-4460-940F-449B62E7CED1}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F79E0768-50DF-4D18-ACEF-1F3381B840C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4014CE5-74AB-40DA-9369-61E6124E0DB3}"/>
   <bookViews>
-    <workbookView xWindow="-10380" yWindow="3645" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3645" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Фамилия</t>
   </si>
@@ -132,15 +132,22 @@
   </si>
   <si>
     <t>Амосова</t>
+  </si>
+  <si>
+    <t>Количествое юбиляров</t>
+  </si>
+  <si>
+    <t>Количество человек моложе 30 лет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_р_."/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -172,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -189,15 +196,25 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -882,10 +899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D12"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,17 +910,18 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -932,12 +950,20 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>30317</v>
       </c>
       <c r="D3">
-        <f ca="1">INT((TODAY()-C3)/365)</f>
+        <f t="shared" ref="D3:D12" ca="1" si="0">INT((TODAY()-C3)/365)</f>
         <v>39</v>
+      </c>
+      <c r="E3" t="str">
+        <f ca="1">IF(MOD(D3,5)=0,"Юбилей","")</f>
+        <v/>
+      </c>
+      <c r="F3" s="10">
+        <f ca="1">IF(E3="Юбилей",50,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -947,12 +973,20 @@
       <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>28945</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D12" ca="1" si="0">INT((TODAY()-C4)/365)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E12" ca="1" si="1">IF(MOD(D4,5)=0,"Юбилей","")</f>
+        <v/>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F14" ca="1" si="2">IF(E4="Юбилей",50,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -962,13 +996,21 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>29680</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -977,13 +1019,21 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>29585</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -992,13 +1042,21 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>30139</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
+      <c r="E7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Юбилей</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1007,13 +1065,21 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>29500</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
+      <c r="E8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1022,13 +1088,21 @@
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>29750</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
+      <c r="E9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1037,13 +1111,21 @@
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>29061</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
+      <c r="E10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1052,13 +1134,21 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>29823</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1067,18 +1157,57 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>29427</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
+      <c r="E12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13">
+        <f ca="1">COUNTIF(E3:E12,"Юбилей")</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14">
+        <f ca="1">COUNTIF(D3:D12, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
+  <conditionalFormatting sqref="E3:E14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Юбилей"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
